--- a/assets/spreadsheets/examples/updateSkuSpecifications.xlsx
+++ b/assets/spreadsheets/examples/updateSkuSpecifications.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matheuscosta\Documents\dev\runner\assets\spreadsheets\examples\criador\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matheuscosta\Documents\vtex-runner\assets\spreadsheets\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{45F963EB-3D05-46DF-B101-0BC3553664C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C5F36F-D2CC-4ED1-A7C9-319E1E31BBA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{49C9BD88-2E9F-434A-B858-6BB8CC185888}"/>
   </bookViews>
@@ -77,8 +77,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -395,194 +394,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1291A3B-5843-4A99-A6C2-98781183A00B}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D13"/>
+      <selection activeCell="A2" sqref="A2:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>26105</v>
-      </c>
-      <c r="B2" s="1">
-        <v>92213</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1193</v>
-      </c>
-      <c r="D2" s="1">
-        <v>38042</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>26240</v>
-      </c>
-      <c r="B3" s="1">
-        <v>379048</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1193</v>
-      </c>
-      <c r="D3" s="1">
-        <v>38042</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2000423</v>
-      </c>
-      <c r="B4" s="1">
-        <v>26940</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1193</v>
-      </c>
-      <c r="D4" s="1">
-        <v>38042</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>22457</v>
-      </c>
-      <c r="B5" s="1">
-        <v>363390</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1193</v>
-      </c>
-      <c r="D5" s="1">
-        <v>38042</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>25846</v>
-      </c>
-      <c r="B6" s="1">
-        <v>48809</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1193</v>
-      </c>
-      <c r="D6" s="1">
-        <v>38042</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>2008030</v>
-      </c>
-      <c r="B7" s="1">
-        <v>74578</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1193</v>
-      </c>
-      <c r="D7" s="1">
-        <v>23211</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>33082</v>
-      </c>
-      <c r="B8" s="1">
-        <v>29091</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1193</v>
-      </c>
-      <c r="D8" s="1">
-        <v>38042</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>2008043</v>
-      </c>
-      <c r="B9" s="1">
-        <v>376118</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1193</v>
-      </c>
-      <c r="D9" s="1">
-        <v>23211</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>2011313</v>
-      </c>
-      <c r="B10" s="1">
-        <v>341789</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1193</v>
-      </c>
-      <c r="D10" s="1">
-        <v>38042</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>2011315</v>
-      </c>
-      <c r="B11" s="1">
-        <v>27125</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1193</v>
-      </c>
-      <c r="D11" s="1">
-        <v>38042</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>2346414</v>
-      </c>
-      <c r="B12" s="1">
-        <v>342152</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1193</v>
-      </c>
-      <c r="D12" s="1">
-        <v>23211</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>2356755</v>
-      </c>
-      <c r="B13" s="1">
-        <v>342164</v>
-      </c>
-      <c r="C13" s="1">
-        <v>1193</v>
-      </c>
-      <c r="D13" s="1">
-        <v>38042</v>
       </c>
     </row>
   </sheetData>
